--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1225.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1225.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.406259510818375</v>
+        <v>1.199790954589844</v>
       </c>
       <c r="B1">
-        <v>2.957859412719054</v>
+        <v>2.063236951828003</v>
       </c>
       <c r="C1">
-        <v>2.441020420985677</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.788191076722486</v>
+        <v>2.083468198776245</v>
       </c>
       <c r="E1">
-        <v>1.148282581156741</v>
+        <v>1.20766007900238</v>
       </c>
     </row>
   </sheetData>
